--- a/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_POS_frequency.xlsx
+++ b/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_POS_frequency.xlsx
@@ -7,26 +7,25 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2007" sheetId="1" r:id="rId1"/>
-    <sheet name="2008" sheetId="2" r:id="rId2"/>
-    <sheet name="2009" sheetId="3" r:id="rId3"/>
-    <sheet name="2010" sheetId="4" r:id="rId4"/>
-    <sheet name="2011" sheetId="5" r:id="rId5"/>
-    <sheet name="2012" sheetId="6" r:id="rId6"/>
-    <sheet name="2013" sheetId="7" r:id="rId7"/>
-    <sheet name="2014" sheetId="8" r:id="rId8"/>
-    <sheet name="2016" sheetId="9" r:id="rId9"/>
-    <sheet name="2017" sheetId="10" r:id="rId10"/>
-    <sheet name="2018" sheetId="11" r:id="rId11"/>
-    <sheet name="counts" sheetId="12" r:id="rId12"/>
-    <sheet name="proportions" sheetId="13" r:id="rId13"/>
+    <sheet name="2009" sheetId="1" r:id="rId1"/>
+    <sheet name="2010" sheetId="2" r:id="rId2"/>
+    <sheet name="2011" sheetId="3" r:id="rId3"/>
+    <sheet name="2012" sheetId="4" r:id="rId4"/>
+    <sheet name="2013" sheetId="5" r:id="rId5"/>
+    <sheet name="2014" sheetId="6" r:id="rId6"/>
+    <sheet name="2015" sheetId="7" r:id="rId7"/>
+    <sheet name="2016" sheetId="8" r:id="rId8"/>
+    <sheet name="2017" sheetId="9" r:id="rId9"/>
+    <sheet name="2018" sheetId="10" r:id="rId10"/>
+    <sheet name="counts" sheetId="11" r:id="rId11"/>
+    <sheet name="proportions" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="22">
   <si>
     <t>count</t>
   </si>
@@ -40,10 +39,10 @@
     <t>NOUN</t>
   </si>
   <si>
-    <t>PUNCT</t>
+    <t>VERB</t>
   </si>
   <si>
-    <t>DET</t>
+    <t>PUNCT</t>
   </si>
   <si>
     <t>ADP</t>
@@ -52,7 +51,7 @@
     <t>PROPN</t>
   </si>
   <si>
-    <t>VERB</t>
+    <t>DET</t>
   </si>
   <si>
     <t>ADJ</t>
@@ -64,22 +63,22 @@
     <t>AUX</t>
   </si>
   <si>
-    <t>CCONJ</t>
+    <t>PART</t>
   </si>
   <si>
-    <t>PART</t>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>CCONJ</t>
   </si>
   <si>
     <t>SCONJ</t>
   </si>
   <si>
-    <t>SPACE</t>
+    <t>NUM</t>
   </si>
   <si>
-    <t>ADV</t>
-  </si>
-  <si>
-    <t>NUM</t>
+    <t>SPACE</t>
   </si>
   <si>
     <t>SYM</t>
@@ -449,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>588</v>
       </c>
       <c r="C2">
-        <v>0.1756756756756757</v>
+        <v>0.1867852604828462</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="C3">
-        <v>0.1283783783783784</v>
+        <v>0.1181702668360864</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="C4">
-        <v>0.1081081081081081</v>
+        <v>0.1092757306226175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,10 +503,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="C5">
-        <v>0.1013513513513514</v>
+        <v>0.1016518424396442</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="C6">
-        <v>0.1013513513513514</v>
+        <v>0.09180432020330369</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="C7">
-        <v>0.0945945945945946</v>
+        <v>0.0781448538754765</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="C8">
-        <v>0.0945945945945946</v>
+        <v>0.06670902160101652</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="C9">
-        <v>0.05405405405405406</v>
+        <v>0.05177890724269377</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,10 +558,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="C10">
-        <v>0.0472972972972973</v>
+        <v>0.05082592121982211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,10 +569,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C11">
-        <v>0.02702702702702703</v>
+        <v>0.03144853875476493</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,10 +580,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>0.02702702702702703</v>
+        <v>0.02763659466327827</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -592,10 +591,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>0.02027027027027027</v>
+        <v>0.02382465057179161</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -603,10 +602,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>0.01351351351351351</v>
+        <v>0.0216010165184244</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -614,10 +613,54 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C15">
-        <v>0.006756756756756757</v>
+        <v>0.01810673443456163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>0.0162007623888183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.004764930114358323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.0006353240152477764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.0006353240152477764</v>
       </c>
     </row>
   </sheetData>
@@ -626,228 +669,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2688</v>
-      </c>
-      <c r="C2">
-        <v>0.1848184818481848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>1810</v>
-      </c>
-      <c r="C3">
-        <v>0.1244499449944994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1582</v>
-      </c>
-      <c r="C4">
-        <v>0.1087733773377338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1473</v>
-      </c>
-      <c r="C5">
-        <v>0.1012788778877888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1435</v>
-      </c>
-      <c r="C6">
-        <v>0.09866611661166116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1153</v>
-      </c>
-      <c r="C7">
-        <v>0.07927667766776678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>874</v>
-      </c>
-      <c r="C8">
-        <v>0.0600935093509351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>790</v>
-      </c>
-      <c r="C9">
-        <v>0.05431793179317932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>628</v>
-      </c>
-      <c r="C10">
-        <v>0.04317931793179318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>463</v>
-      </c>
-      <c r="C11">
-        <v>0.03183443344334434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>459</v>
-      </c>
-      <c r="C12">
-        <v>0.03155940594059406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>430</v>
-      </c>
-      <c r="C13">
-        <v>0.02956545654565457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>367</v>
-      </c>
-      <c r="C14">
-        <v>0.02523377337733773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>245</v>
-      </c>
-      <c r="C15">
-        <v>0.01684543454345435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>80</v>
-      </c>
-      <c r="C16">
-        <v>0.005500550055005501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>58</v>
-      </c>
-      <c r="C17">
-        <v>0.003987898789878988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>0.0004125412541254125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>0.0002062706270627063</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -901,7 +722,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>267</v>
@@ -912,7 +733,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>232</v>
@@ -934,7 +755,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>176</v>
@@ -967,7 +788,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>76</v>
@@ -978,7 +799,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>63</v>
@@ -989,7 +810,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>58</v>
@@ -1000,7 +821,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>54</v>
@@ -1011,7 +832,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>35</v>
@@ -1022,7 +843,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>17</v>
@@ -1058,9 +879,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1127,276 +948,288 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>588</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="E2">
+        <v>320</v>
+      </c>
+      <c r="F2">
+        <v>289</v>
+      </c>
+      <c r="G2">
+        <v>246</v>
+      </c>
+      <c r="H2">
+        <v>210</v>
+      </c>
+      <c r="I2">
+        <v>163</v>
+      </c>
+      <c r="J2">
+        <v>160</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>87</v>
+      </c>
+      <c r="M2">
+        <v>75</v>
+      </c>
+      <c r="N2">
+        <v>68</v>
+      </c>
+      <c r="O2">
+        <v>57</v>
+      </c>
+      <c r="P2">
+        <v>51</v>
+      </c>
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>1</v>
+      <c r="S2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B3">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="C3">
-        <v>345</v>
+        <v>215</v>
       </c>
       <c r="D3">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E3">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F3">
-        <v>504</v>
+        <v>260</v>
       </c>
       <c r="G3">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H3">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="I3">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L3">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O3">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P3">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="Q3">
-        <v>18</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B4">
-        <v>588</v>
+        <v>1497</v>
       </c>
       <c r="C4">
-        <v>344</v>
+        <v>848</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>840</v>
       </c>
       <c r="E4">
-        <v>320</v>
+        <v>781</v>
       </c>
       <c r="F4">
-        <v>289</v>
+        <v>837</v>
       </c>
       <c r="G4">
-        <v>372</v>
+        <v>633</v>
       </c>
       <c r="H4">
+        <v>481</v>
+      </c>
+      <c r="I4">
+        <v>407</v>
+      </c>
+      <c r="J4">
+        <v>356</v>
+      </c>
+      <c r="K4">
         <v>210</v>
       </c>
-      <c r="I4">
-        <v>163</v>
-      </c>
-      <c r="J4">
-        <v>160</v>
-      </c>
-      <c r="K4">
-        <v>75</v>
-      </c>
       <c r="L4">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="M4">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="N4">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="O4">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="P4">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B5">
-        <v>409</v>
+        <v>1048</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>638</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>811</v>
       </c>
       <c r="E5">
-        <v>194</v>
+        <v>580</v>
       </c>
       <c r="F5">
-        <v>260</v>
+        <v>890</v>
       </c>
       <c r="G5">
-        <v>215</v>
+        <v>461</v>
       </c>
       <c r="H5">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="I5">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="J5">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="K5">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="L5">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="N5">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="O5">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="P5">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B6">
-        <v>1497</v>
+        <v>1199</v>
       </c>
       <c r="C6">
-        <v>840</v>
+        <v>657</v>
       </c>
       <c r="D6">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E6">
-        <v>781</v>
+        <v>666</v>
       </c>
       <c r="F6">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="G6">
-        <v>848</v>
+        <v>490</v>
       </c>
       <c r="H6">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="I6">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="J6">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="K6">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="L6">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="M6">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="N6">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="O6">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="P6">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="Q6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -1404,117 +1237,117 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>1048</v>
+        <v>926</v>
       </c>
       <c r="C7">
-        <v>811</v>
+        <v>609</v>
       </c>
       <c r="D7">
-        <v>461</v>
+        <v>765</v>
       </c>
       <c r="E7">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="F7">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="G7">
-        <v>638</v>
+        <v>394</v>
       </c>
       <c r="H7">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="I7">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="J7">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="K7">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="L7">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="M7">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="N7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O7">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="P7">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B8">
-        <v>1199</v>
+        <v>696</v>
       </c>
       <c r="C8">
-        <v>634</v>
+        <v>394</v>
       </c>
       <c r="D8">
-        <v>490</v>
+        <v>421</v>
       </c>
       <c r="E8">
-        <v>666</v>
+        <v>376</v>
       </c>
       <c r="F8">
-        <v>821</v>
+        <v>464</v>
       </c>
       <c r="G8">
-        <v>657</v>
+        <v>266</v>
       </c>
       <c r="H8">
-        <v>387</v>
+        <v>245</v>
       </c>
       <c r="I8">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="J8">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="K8">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="L8">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="N8">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="O8">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="P8">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>3</v>
@@ -1522,114 +1355,114 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B9">
-        <v>926</v>
+        <v>811</v>
       </c>
       <c r="C9">
-        <v>765</v>
+        <v>524</v>
       </c>
       <c r="D9">
-        <v>394</v>
+        <v>535</v>
       </c>
       <c r="E9">
-        <v>532</v>
+        <v>445</v>
       </c>
       <c r="F9">
-        <v>870</v>
+        <v>688</v>
       </c>
       <c r="G9">
-        <v>609</v>
+        <v>328</v>
       </c>
       <c r="H9">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="I9">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="J9">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K9">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="L9">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="N9">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="O9">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="P9">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="Q9">
-        <v>44</v>
-      </c>
-      <c r="R9">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10">
-        <v>811</v>
+        <v>2688</v>
       </c>
       <c r="C10">
-        <v>535</v>
+        <v>1582</v>
       </c>
       <c r="D10">
-        <v>328</v>
+        <v>1435</v>
       </c>
       <c r="E10">
-        <v>445</v>
+        <v>1473</v>
       </c>
       <c r="F10">
-        <v>688</v>
+        <v>1810</v>
       </c>
       <c r="G10">
-        <v>524</v>
+        <v>1153</v>
       </c>
       <c r="H10">
-        <v>302</v>
+        <v>874</v>
       </c>
       <c r="I10">
-        <v>271</v>
+        <v>790</v>
       </c>
       <c r="J10">
-        <v>204</v>
+        <v>628</v>
       </c>
       <c r="K10">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="L10">
-        <v>139</v>
+        <v>459</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>430</v>
       </c>
       <c r="N10">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="O10">
-        <v>153</v>
+        <v>463</v>
       </c>
       <c r="P10">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q10">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -1637,116 +1470,57 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B11">
-        <v>2688</v>
+        <v>509</v>
       </c>
       <c r="C11">
-        <v>1435</v>
+        <v>267</v>
       </c>
       <c r="D11">
-        <v>1153</v>
+        <v>232</v>
       </c>
       <c r="E11">
-        <v>1473</v>
+        <v>278</v>
       </c>
       <c r="F11">
-        <v>1810</v>
+        <v>305</v>
       </c>
       <c r="G11">
-        <v>1582</v>
+        <v>176</v>
       </c>
       <c r="H11">
-        <v>874</v>
+        <v>185</v>
       </c>
       <c r="I11">
-        <v>790</v>
+        <v>135</v>
       </c>
       <c r="J11">
-        <v>628</v>
+        <v>105</v>
       </c>
       <c r="K11">
-        <v>430</v>
+        <v>54</v>
       </c>
       <c r="L11">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="M11">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="N11">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="O11">
-        <v>459</v>
+        <v>58</v>
       </c>
       <c r="P11">
-        <v>463</v>
+        <v>17</v>
       </c>
       <c r="Q11">
-        <v>58</v>
-      </c>
-      <c r="R11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>509</v>
-      </c>
-      <c r="C12">
-        <v>232</v>
-      </c>
-      <c r="D12">
-        <v>176</v>
-      </c>
-      <c r="E12">
-        <v>278</v>
-      </c>
-      <c r="F12">
-        <v>305</v>
-      </c>
-      <c r="G12">
-        <v>267</v>
-      </c>
-      <c r="H12">
-        <v>185</v>
-      </c>
-      <c r="I12">
-        <v>135</v>
-      </c>
-      <c r="J12">
-        <v>105</v>
-      </c>
-      <c r="K12">
-        <v>63</v>
-      </c>
-      <c r="L12">
-        <v>54</v>
-      </c>
-      <c r="M12">
-        <v>35</v>
-      </c>
-      <c r="N12">
-        <v>17</v>
-      </c>
-      <c r="O12">
-        <v>76</v>
-      </c>
-      <c r="P12">
-        <v>58</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-      <c r="S12">
         <v>1</v>
       </c>
     </row>
@@ -1755,9 +1529,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1824,626 +1598,579 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B2">
-        <v>0.1756756756756757</v>
+        <v>0.1867852604828462</v>
       </c>
       <c r="C2">
-        <v>0.1283783783783784</v>
+        <v>0.1181702668360864</v>
       </c>
       <c r="D2">
-        <v>0.1081081081081081</v>
+        <v>0.1092757306226175</v>
       </c>
       <c r="E2">
-        <v>0.1013513513513514</v>
+        <v>0.1016518424396442</v>
       </c>
       <c r="F2">
-        <v>0.1013513513513514</v>
+        <v>0.09180432020330369</v>
       </c>
       <c r="G2">
-        <v>0.0945945945945946</v>
+        <v>0.0781448538754765</v>
       </c>
       <c r="H2">
-        <v>0.0945945945945946</v>
+        <v>0.06670902160101652</v>
       </c>
       <c r="I2">
-        <v>0.05405405405405406</v>
+        <v>0.05177890724269377</v>
       </c>
       <c r="J2">
-        <v>0.0472972972972973</v>
+        <v>0.05082592121982211</v>
       </c>
       <c r="K2">
-        <v>0.02702702702702703</v>
+        <v>0.03144853875476493</v>
       </c>
       <c r="L2">
-        <v>0.02702702702702703</v>
+        <v>0.02763659466327827</v>
       </c>
       <c r="M2">
-        <v>0.02027027027027027</v>
+        <v>0.02382465057179161</v>
       </c>
       <c r="N2">
-        <v>0.01351351351351351</v>
+        <v>0.0216010165184244</v>
       </c>
       <c r="O2">
-        <v>0.006756756756756757</v>
+        <v>0.01810673443456163</v>
+      </c>
+      <c r="P2">
+        <v>0.0162007623888183</v>
+      </c>
+      <c r="Q2">
+        <v>0.004764930114358323</v>
+      </c>
+      <c r="R2">
+        <v>0.0006353240152477764</v>
+      </c>
+      <c r="S2">
+        <v>0.0006353240152477764</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B3">
-        <v>0.1115577889447236</v>
+        <v>0.2046023011505753</v>
       </c>
       <c r="C3">
-        <v>0.1733668341708543</v>
+        <v>0.1075537768884442</v>
       </c>
       <c r="D3">
-        <v>0.06080402010050251</v>
+        <v>0.1055527763881941</v>
       </c>
       <c r="E3">
-        <v>0.08341708542713568</v>
+        <v>0.09704852426213106</v>
       </c>
       <c r="F3">
-        <v>0.2532663316582914</v>
+        <v>0.1300650325162581</v>
       </c>
       <c r="G3">
-        <v>0.07386934673366834</v>
+        <v>0.07803901950975488</v>
       </c>
       <c r="H3">
-        <v>0.03115577889447236</v>
+        <v>0.06203101550775388</v>
       </c>
       <c r="I3">
-        <v>0.03567839195979899</v>
+        <v>0.0400200100050025</v>
       </c>
       <c r="J3">
-        <v>0.03065326633165829</v>
+        <v>0.03901950975487744</v>
       </c>
       <c r="K3">
-        <v>0.02361809045226131</v>
+        <v>0.02451225612806403</v>
       </c>
       <c r="L3">
-        <v>0.03316582914572865</v>
+        <v>0.02451225612806403</v>
       </c>
       <c r="M3">
-        <v>0.01105527638190955</v>
+        <v>0.02601300650325163</v>
       </c>
       <c r="N3">
-        <v>0.01809045226130653</v>
+        <v>0.016008004002001</v>
       </c>
       <c r="O3">
-        <v>0.01658291457286432</v>
+        <v>0.0240120060030015</v>
       </c>
       <c r="P3">
-        <v>0.03216080402010051</v>
+        <v>0.01350675337668834</v>
       </c>
       <c r="Q3">
-        <v>0.009045226130653266</v>
-      </c>
-      <c r="R3">
-        <v>0.002010050251256282</v>
-      </c>
-      <c r="S3">
-        <v>0.0005025125628140704</v>
+        <v>0.007503751875937969</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B4">
-        <v>0.1867852604828462</v>
+        <v>0.192540192926045</v>
       </c>
       <c r="C4">
-        <v>0.1092757306226175</v>
+        <v>0.1090675241157556</v>
       </c>
       <c r="D4">
-        <v>0.0781448538754765</v>
+        <v>0.1080385852090032</v>
       </c>
       <c r="E4">
-        <v>0.1016518424396442</v>
+        <v>0.1004501607717042</v>
       </c>
       <c r="F4">
-        <v>0.09180432020330369</v>
+        <v>0.1076527331189711</v>
       </c>
       <c r="G4">
-        <v>0.1181702668360864</v>
+        <v>0.08141479099678457</v>
       </c>
       <c r="H4">
-        <v>0.06670902160101652</v>
+        <v>0.06186495176848875</v>
       </c>
       <c r="I4">
-        <v>0.05177890724269377</v>
+        <v>0.05234726688102894</v>
       </c>
       <c r="J4">
-        <v>0.05082592121982211</v>
+        <v>0.04578778135048232</v>
       </c>
       <c r="K4">
-        <v>0.02382465057179161</v>
+        <v>0.0270096463022508</v>
       </c>
       <c r="L4">
-        <v>0.03144853875476493</v>
+        <v>0.0309967845659164</v>
       </c>
       <c r="M4">
-        <v>0.0216010165184244</v>
+        <v>0.03009646302250804</v>
       </c>
       <c r="N4">
-        <v>0.0162007623888183</v>
+        <v>0.01556270096463023</v>
       </c>
       <c r="O4">
-        <v>0.02763659466327827</v>
+        <v>0.01813504823151126</v>
       </c>
       <c r="P4">
-        <v>0.01810673443456163</v>
+        <v>0.01337620578778135</v>
       </c>
       <c r="Q4">
-        <v>0.004764930114358323</v>
+        <v>0.003987138263665595</v>
       </c>
       <c r="R4">
-        <v>0.0006353240152477764</v>
+        <v>0.001286173633440514</v>
       </c>
       <c r="S4">
-        <v>0.0006353240152477764</v>
+        <v>0.0003858520900321543</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B5">
-        <v>0.2046023011505753</v>
+        <v>0.1687328932539044</v>
       </c>
       <c r="C5">
-        <v>0.1055527763881941</v>
+        <v>0.1027209789083883</v>
       </c>
       <c r="D5">
-        <v>0.07803901950975488</v>
+        <v>0.1305747866688134</v>
       </c>
       <c r="E5">
-        <v>0.09704852426213106</v>
+        <v>0.09338270809853486</v>
       </c>
       <c r="F5">
-        <v>0.1300650325162581</v>
+        <v>0.1432941555305104</v>
       </c>
       <c r="G5">
-        <v>0.1075537768884442</v>
+        <v>0.07422315247142167</v>
       </c>
       <c r="H5">
-        <v>0.06203101550775388</v>
+        <v>0.05200450813073579</v>
       </c>
       <c r="I5">
-        <v>0.0400200100050025</v>
+        <v>0.05055546610851715</v>
       </c>
       <c r="J5">
-        <v>0.03901950975487744</v>
+        <v>0.04137819996779907</v>
       </c>
       <c r="K5">
-        <v>0.02601300650325163</v>
+        <v>0.02769280309128965</v>
       </c>
       <c r="L5">
-        <v>0.02451225612806403</v>
+        <v>0.02334567702463371</v>
       </c>
       <c r="M5">
-        <v>0.016008004002001</v>
+        <v>0.02318467235549831</v>
       </c>
       <c r="N5">
-        <v>0.01350675337668834</v>
+        <v>0.01497343422959266</v>
       </c>
       <c r="O5">
-        <v>0.02451225612806403</v>
+        <v>0.0294638544517791</v>
       </c>
       <c r="P5">
-        <v>0.0240120060030015</v>
+        <v>0.01336338753823861</v>
       </c>
       <c r="Q5">
-        <v>0.007503751875937969</v>
+        <v>0.01014329415553051</v>
+      </c>
+      <c r="R5">
+        <v>0.0008050233456770246</v>
+      </c>
+      <c r="S5">
+        <v>0.0001610046691354049</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B6">
-        <v>0.192540192926045</v>
+        <v>0.1898653998416469</v>
       </c>
       <c r="C6">
-        <v>0.1080385852090032</v>
+        <v>0.1040380047505938</v>
       </c>
       <c r="D6">
-        <v>0.08141479099678457</v>
+        <v>0.1003958828186857</v>
       </c>
       <c r="E6">
-        <v>0.1004501607717042</v>
+        <v>0.1054631828978622</v>
       </c>
       <c r="F6">
-        <v>0.1076527331189711</v>
+        <v>0.1300079176563737</v>
       </c>
       <c r="G6">
-        <v>0.1090675241157556</v>
+        <v>0.07759303246239113</v>
       </c>
       <c r="H6">
-        <v>0.06186495176848875</v>
+        <v>0.06128266033254157</v>
       </c>
       <c r="I6">
-        <v>0.05234726688102894</v>
+        <v>0.04481393507521773</v>
       </c>
       <c r="J6">
-        <v>0.04578778135048232</v>
+        <v>0.03832145684877276</v>
       </c>
       <c r="K6">
-        <v>0.03009646302250804</v>
+        <v>0.03072050673000792</v>
       </c>
       <c r="L6">
-        <v>0.0270096463022508</v>
+        <v>0.02913697545526524</v>
       </c>
       <c r="M6">
-        <v>0.01556270096463023</v>
+        <v>0.02549485352335708</v>
       </c>
       <c r="N6">
-        <v>0.01337620578778135</v>
+        <v>0.01330166270783848</v>
       </c>
       <c r="O6">
-        <v>0.0309967845659164</v>
+        <v>0.02581155977830562</v>
       </c>
       <c r="P6">
-        <v>0.01813504823151126</v>
+        <v>0.01805225653206651</v>
       </c>
       <c r="Q6">
-        <v>0.003987138263665595</v>
+        <v>0.004750593824228029</v>
       </c>
       <c r="R6">
-        <v>0.001286173633440514</v>
+        <v>0.0004750593824228028</v>
       </c>
       <c r="S6">
-        <v>0.0003858520900321543</v>
+        <v>0.0004750593824228028</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>0.1687328932539044</v>
+        <v>0.1613240418118467</v>
       </c>
       <c r="C7">
-        <v>0.1305747866688134</v>
+        <v>0.1060975609756098</v>
       </c>
       <c r="D7">
-        <v>0.07422315247142167</v>
+        <v>0.1332752613240418</v>
       </c>
       <c r="E7">
-        <v>0.09338270809853486</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="F7">
-        <v>0.1432941555305104</v>
+        <v>0.1515679442508711</v>
       </c>
       <c r="G7">
-        <v>0.1027209789083883</v>
+        <v>0.0686411149825784</v>
       </c>
       <c r="H7">
-        <v>0.05200450813073579</v>
+        <v>0.04564459930313589</v>
       </c>
       <c r="I7">
-        <v>0.05055546610851715</v>
+        <v>0.03832752613240418</v>
       </c>
       <c r="J7">
-        <v>0.04137819996779907</v>
+        <v>0.03501742160278746</v>
       </c>
       <c r="K7">
-        <v>0.02318467235549831</v>
+        <v>0.03083623693379791</v>
       </c>
       <c r="L7">
-        <v>0.02769280309128965</v>
+        <v>0.0186411149825784</v>
       </c>
       <c r="M7">
-        <v>0.01497343422959266</v>
+        <v>0.01933797909407665</v>
       </c>
       <c r="N7">
-        <v>0.01336338753823861</v>
+        <v>0.01515679442508711</v>
       </c>
       <c r="O7">
-        <v>0.02334567702463371</v>
+        <v>0.04721254355400697</v>
       </c>
       <c r="P7">
-        <v>0.0294638544517791</v>
+        <v>0.0210801393728223</v>
       </c>
       <c r="Q7">
-        <v>0.01014329415553051</v>
+        <v>0.007665505226480836</v>
       </c>
       <c r="R7">
-        <v>0.0008050233456770246</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="S7">
-        <v>0.0001610046691354049</v>
+        <v>0.0003484320557491289</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B8">
-        <v>0.1898653998416469</v>
+        <v>0.185649506535076</v>
       </c>
       <c r="C8">
-        <v>0.1003958828186857</v>
+        <v>0.1050946919178448</v>
       </c>
       <c r="D8">
-        <v>0.07759303246239113</v>
+        <v>0.1122966124299813</v>
       </c>
       <c r="E8">
-        <v>0.1054631828978622</v>
+        <v>0.1002934115764204</v>
       </c>
       <c r="F8">
-        <v>0.1300079176563737</v>
+        <v>0.1237663376900507</v>
       </c>
       <c r="G8">
-        <v>0.1040380047505938</v>
+        <v>0.07095225393438251</v>
       </c>
       <c r="H8">
-        <v>0.06128266033254157</v>
+        <v>0.06535076020272072</v>
       </c>
       <c r="I8">
-        <v>0.04481393507521773</v>
+        <v>0.05201387036543078</v>
       </c>
       <c r="J8">
-        <v>0.03832145684877276</v>
+        <v>0.04054414510536143</v>
       </c>
       <c r="K8">
-        <v>0.02549485352335708</v>
+        <v>0.03360896238997066</v>
       </c>
       <c r="L8">
-        <v>0.03072050673000792</v>
+        <v>0.02534009069085089</v>
       </c>
       <c r="M8">
-        <v>0.01330166270783848</v>
+        <v>0.03094158442251267</v>
       </c>
       <c r="N8">
-        <v>0.01805225653206651</v>
+        <v>0.01200320085356095</v>
       </c>
       <c r="O8">
-        <v>0.02913697545526524</v>
+        <v>0.01733795678847693</v>
       </c>
       <c r="P8">
-        <v>0.02581155977830562</v>
+        <v>0.01893838356895172</v>
       </c>
       <c r="Q8">
-        <v>0.004750593824228029</v>
+        <v>0.00480128034142438</v>
       </c>
       <c r="R8">
-        <v>0.0004750593824228028</v>
+        <v>0.0002667377967457989</v>
       </c>
       <c r="S8">
-        <v>0.0004750593824228028</v>
+        <v>0.0008002133902373967</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B9">
-        <v>0.1613240418118467</v>
+        <v>0.1682572614107884</v>
       </c>
       <c r="C9">
-        <v>0.1332752613240418</v>
+        <v>0.1087136929460581</v>
       </c>
       <c r="D9">
-        <v>0.0686411149825784</v>
+        <v>0.1109958506224066</v>
       </c>
       <c r="E9">
-        <v>0.09268292682926829</v>
+        <v>0.09232365145228216</v>
       </c>
       <c r="F9">
-        <v>0.1515679442508711</v>
+        <v>0.1427385892116182</v>
       </c>
       <c r="G9">
-        <v>0.1060975609756098</v>
+        <v>0.06804979253112033</v>
       </c>
       <c r="H9">
-        <v>0.04564459930313589</v>
+        <v>0.06265560165975104</v>
       </c>
       <c r="I9">
-        <v>0.03832752613240418</v>
+        <v>0.0562240663900415</v>
       </c>
       <c r="J9">
-        <v>0.03501742160278746</v>
+        <v>0.04232365145228216</v>
       </c>
       <c r="K9">
-        <v>0.01933797909407665</v>
+        <v>0.02883817427385892</v>
       </c>
       <c r="L9">
-        <v>0.03083623693379791</v>
+        <v>0.03174273858921162</v>
       </c>
       <c r="M9">
-        <v>0.01515679442508711</v>
+        <v>0.02946058091286307</v>
       </c>
       <c r="N9">
-        <v>0.0210801393728223</v>
+        <v>0.01763485477178423</v>
       </c>
       <c r="O9">
-        <v>0.0186411149825784</v>
+        <v>0.01701244813278008</v>
       </c>
       <c r="P9">
-        <v>0.04721254355400697</v>
+        <v>0.01224066390041494</v>
       </c>
       <c r="Q9">
-        <v>0.007665505226480836</v>
-      </c>
-      <c r="R9">
-        <v>0.007142857142857143</v>
+        <v>0.01016597510373444</v>
       </c>
       <c r="S9">
-        <v>0.0003484320557491289</v>
+        <v>0.0006224066390041493</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10">
-        <v>0.1682572614107884</v>
+        <v>0.1848184818481848</v>
       </c>
       <c r="C10">
-        <v>0.1109958506224066</v>
+        <v>0.1087733773377338</v>
       </c>
       <c r="D10">
-        <v>0.06804979253112033</v>
+        <v>0.09866611661166116</v>
       </c>
       <c r="E10">
-        <v>0.09232365145228216</v>
+        <v>0.1012788778877888</v>
       </c>
       <c r="F10">
-        <v>0.1427385892116182</v>
+        <v>0.1244499449944994</v>
       </c>
       <c r="G10">
-        <v>0.1087136929460581</v>
+        <v>0.07927667766776678</v>
       </c>
       <c r="H10">
-        <v>0.06265560165975104</v>
+        <v>0.0600935093509351</v>
       </c>
       <c r="I10">
-        <v>0.0562240663900415</v>
+        <v>0.05431793179317932</v>
       </c>
       <c r="J10">
-        <v>0.04232365145228216</v>
+        <v>0.04317931793179318</v>
       </c>
       <c r="K10">
-        <v>0.02946058091286307</v>
+        <v>0.02523377337733773</v>
       </c>
       <c r="L10">
-        <v>0.02883817427385892</v>
+        <v>0.03155940594059406</v>
       </c>
       <c r="M10">
-        <v>0.01763485477178423</v>
+        <v>0.02956545654565457</v>
       </c>
       <c r="N10">
-        <v>0.01224066390041494</v>
+        <v>0.01684543454345435</v>
       </c>
       <c r="O10">
-        <v>0.03174273858921162</v>
+        <v>0.03183443344334434</v>
       </c>
       <c r="P10">
-        <v>0.01701244813278008</v>
+        <v>0.005500550055005501</v>
       </c>
       <c r="Q10">
-        <v>0.01016597510373444</v>
+        <v>0.003987898789878988</v>
+      </c>
+      <c r="R10">
+        <v>0.0004125412541254125</v>
       </c>
       <c r="S10">
-        <v>0.0006224066390041493</v>
+        <v>0.0002062706270627063</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B11">
-        <v>0.1848184818481848</v>
+        <v>0.2031125299281724</v>
       </c>
       <c r="C11">
-        <v>0.09866611661166116</v>
+        <v>0.1065442936951317</v>
       </c>
       <c r="D11">
-        <v>0.07927667766776678</v>
+        <v>0.09257781324820431</v>
       </c>
       <c r="E11">
-        <v>0.1012788778877888</v>
+        <v>0.1109337589784517</v>
       </c>
       <c r="F11">
-        <v>0.1244499449944994</v>
+        <v>0.12170790103751</v>
       </c>
       <c r="G11">
-        <v>0.1087733773377338</v>
+        <v>0.07023144453312051</v>
       </c>
       <c r="H11">
-        <v>0.0600935093509351</v>
+        <v>0.07382282521947327</v>
       </c>
       <c r="I11">
-        <v>0.05431793179317932</v>
+        <v>0.0538707102952913</v>
       </c>
       <c r="J11">
-        <v>0.04317931793179318</v>
+        <v>0.04189944134078212</v>
       </c>
       <c r="K11">
-        <v>0.02956545654565457</v>
+        <v>0.02154828411811652</v>
       </c>
       <c r="L11">
-        <v>0.02523377337733773</v>
+        <v>0.03032721468475658</v>
       </c>
       <c r="M11">
-        <v>0.01684543454345435</v>
+        <v>0.02513966480446927</v>
       </c>
       <c r="N11">
-        <v>0.005500550055005501</v>
+        <v>0.01396648044692737</v>
       </c>
       <c r="O11">
-        <v>0.03155940594059406</v>
+        <v>0.02314445331205108</v>
       </c>
       <c r="P11">
-        <v>0.03183443344334434</v>
+        <v>0.006783719074221868</v>
       </c>
       <c r="Q11">
-        <v>0.003987898789878988</v>
-      </c>
-      <c r="R11">
-        <v>0.0004125412541254125</v>
+        <v>0.003990422984836393</v>
       </c>
       <c r="S11">
-        <v>0.0002062706270627063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>0.2031125299281724</v>
-      </c>
-      <c r="C12">
-        <v>0.09257781324820431</v>
-      </c>
-      <c r="D12">
-        <v>0.07023144453312051</v>
-      </c>
-      <c r="E12">
-        <v>0.1109337589784517</v>
-      </c>
-      <c r="F12">
-        <v>0.12170790103751</v>
-      </c>
-      <c r="G12">
-        <v>0.1065442936951317</v>
-      </c>
-      <c r="H12">
-        <v>0.07382282521947327</v>
-      </c>
-      <c r="I12">
-        <v>0.0538707102952913</v>
-      </c>
-      <c r="J12">
-        <v>0.04189944134078212</v>
-      </c>
-      <c r="K12">
-        <v>0.02513966480446927</v>
-      </c>
-      <c r="L12">
-        <v>0.02154828411811652</v>
-      </c>
-      <c r="M12">
-        <v>0.01396648044692737</v>
-      </c>
-      <c r="N12">
-        <v>0.006783719074221868</v>
-      </c>
-      <c r="O12">
-        <v>0.03032721468475658</v>
-      </c>
-      <c r="P12">
-        <v>0.02314445331205108</v>
-      </c>
-      <c r="Q12">
-        <v>0.003990422984836393</v>
-      </c>
-      <c r="S12">
         <v>0.0003990422984836393</v>
       </c>
     </row>
@@ -2454,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2473,167 +2200,167 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>409</v>
       </c>
       <c r="C2">
-        <v>0.2532663316582914</v>
+        <v>0.2046023011505753</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="C3">
-        <v>0.1733668341708543</v>
+        <v>0.1300650325162581</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C4">
-        <v>0.1115577889447236</v>
+        <v>0.1075537768884442</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C5">
-        <v>0.08341708542713568</v>
+        <v>0.1055527763881941</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C6">
-        <v>0.07386934673366834</v>
+        <v>0.09704852426213106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C7">
-        <v>0.06080402010050251</v>
+        <v>0.07803901950975488</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C8">
-        <v>0.03567839195979899</v>
+        <v>0.06203101550775388</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>0.03316582914572865</v>
+        <v>0.0400200100050025</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>0.03216080402010051</v>
+        <v>0.03901950975487744</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>0.03115577889447236</v>
+        <v>0.02601300650325163</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>0.03065326633165829</v>
+        <v>0.02451225612806403</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13">
-        <v>0.02361809045226131</v>
+        <v>0.02451225612806403</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>0.01809045226130653</v>
+        <v>0.0240120060030015</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>0.01658291457286432</v>
+        <v>0.016008004002001</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>0.01105527638190955</v>
+        <v>0.01350675337668834</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2641,32 +2368,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0.009045226130653266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0.002010050251256282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0.0005025125628140704</v>
+        <v>0.007503751875937969</v>
       </c>
     </row>
   </sheetData>
@@ -2698,65 +2403,65 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>588</v>
+        <v>1497</v>
       </c>
       <c r="C2">
-        <v>0.1867852604828462</v>
+        <v>0.192540192926045</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>372</v>
+        <v>848</v>
       </c>
       <c r="C3">
-        <v>0.1181702668360864</v>
+        <v>0.1090675241157556</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>344</v>
+        <v>840</v>
       </c>
       <c r="C4">
-        <v>0.1092757306226175</v>
+        <v>0.1080385852090032</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>320</v>
+        <v>837</v>
       </c>
       <c r="C5">
-        <v>0.1016518424396442</v>
+        <v>0.1076527331189711</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>289</v>
+        <v>781</v>
       </c>
       <c r="C6">
-        <v>0.09180432020330369</v>
+        <v>0.1004501607717042</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="C7">
-        <v>0.0781448538754765</v>
+        <v>0.08141479099678457</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2764,10 +2469,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>210</v>
+        <v>481</v>
       </c>
       <c r="C8">
-        <v>0.06670902160101652</v>
+        <v>0.06186495176848875</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2775,10 +2480,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="C9">
-        <v>0.05177890724269377</v>
+        <v>0.05234726688102894</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2786,10 +2491,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>160</v>
+        <v>356</v>
       </c>
       <c r="C10">
-        <v>0.05082592121982211</v>
+        <v>0.04578778135048232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2797,21 +2502,21 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="C11">
-        <v>0.03144853875476493</v>
+        <v>0.0309967845659164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="C12">
-        <v>0.02763659466327827</v>
+        <v>0.03009646302250804</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2819,43 +2524,43 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="C13">
-        <v>0.02382465057179161</v>
+        <v>0.0270096463022508</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C14">
-        <v>0.0216010165184244</v>
+        <v>0.01813504823151126</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C15">
-        <v>0.01810673443456163</v>
+        <v>0.01556270096463023</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C16">
-        <v>0.0162007623888183</v>
+        <v>0.01337620578778135</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2863,10 +2568,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>0.004764930114358323</v>
+        <v>0.003987138263665595</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2874,10 +2579,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0.0006353240152477764</v>
+        <v>0.001286173633440514</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2885,10 +2590,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.0006353240152477764</v>
+        <v>0.0003858520900321543</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2920,10 +2625,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>409</v>
+        <v>1048</v>
       </c>
       <c r="C2">
-        <v>0.2046023011505753</v>
+        <v>0.1687328932539044</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2931,21 +2636,21 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>260</v>
+        <v>890</v>
       </c>
       <c r="C3">
-        <v>0.1300650325162581</v>
+        <v>0.1432941555305104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>215</v>
+        <v>811</v>
       </c>
       <c r="C4">
-        <v>0.1075537768884442</v>
+        <v>0.1305747866688134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2953,10 +2658,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>211</v>
+        <v>638</v>
       </c>
       <c r="C5">
-        <v>0.1055527763881941</v>
+        <v>0.1027209789083883</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2964,21 +2669,21 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>194</v>
+        <v>580</v>
       </c>
       <c r="C6">
-        <v>0.09704852426213106</v>
+        <v>0.09338270809853486</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>156</v>
+        <v>461</v>
       </c>
       <c r="C7">
-        <v>0.07803901950975488</v>
+        <v>0.07422315247142167</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2986,10 +2691,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="C8">
-        <v>0.06203101550775388</v>
+        <v>0.05200450813073579</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2997,10 +2702,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="C9">
-        <v>0.0400200100050025</v>
+        <v>0.05055546610851715</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3008,76 +2713,76 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="C10">
-        <v>0.03901950975487744</v>
+        <v>0.04137819996779907</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C11">
-        <v>0.02601300650325163</v>
+        <v>0.0294638544517791</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="C12">
-        <v>0.02451225612806403</v>
+        <v>0.02769280309128965</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C13">
-        <v>0.02451225612806403</v>
+        <v>0.02334567702463371</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C14">
-        <v>0.0240120060030015</v>
+        <v>0.02318467235549831</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C15">
-        <v>0.016008004002001</v>
+        <v>0.01497343422959266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C16">
-        <v>0.01350675337668834</v>
+        <v>0.01336338753823861</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3085,10 +2790,32 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C17">
-        <v>0.007503751875937969</v>
+        <v>0.01014329415553051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.0008050233456770246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.0001610046691354049</v>
       </c>
     </row>
   </sheetData>
@@ -3120,65 +2847,65 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1497</v>
+        <v>1199</v>
       </c>
       <c r="C2">
-        <v>0.192540192926045</v>
+        <v>0.1898653998416469</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>848</v>
+        <v>821</v>
       </c>
       <c r="C3">
-        <v>0.1090675241157556</v>
+        <v>0.1300079176563737</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>840</v>
+        <v>666</v>
       </c>
       <c r="C4">
-        <v>0.1080385852090032</v>
+        <v>0.1054631828978622</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>837</v>
+        <v>657</v>
       </c>
       <c r="C5">
-        <v>0.1076527331189711</v>
+        <v>0.1040380047505938</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>781</v>
+        <v>634</v>
       </c>
       <c r="C6">
-        <v>0.1004501607717042</v>
+        <v>0.1003958828186857</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>633</v>
+        <v>490</v>
       </c>
       <c r="C7">
-        <v>0.08141479099678457</v>
+        <v>0.07759303246239113</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3186,10 +2913,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="C8">
-        <v>0.06186495176848875</v>
+        <v>0.06128266033254157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3197,10 +2924,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="C9">
-        <v>0.05234726688102894</v>
+        <v>0.04481393507521773</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3208,65 +2935,65 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="C10">
-        <v>0.04578778135048232</v>
+        <v>0.03832145684877276</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="C11">
-        <v>0.0309967845659164</v>
+        <v>0.03072050673000792</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="C12">
-        <v>0.03009646302250804</v>
+        <v>0.02913697545526524</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C13">
-        <v>0.0270096463022508</v>
+        <v>0.02581155977830562</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C14">
-        <v>0.01813504823151126</v>
+        <v>0.02549485352335708</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C15">
-        <v>0.01556270096463023</v>
+        <v>0.01805225653206651</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3274,10 +3001,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C16">
-        <v>0.01337620578778135</v>
+        <v>0.01330166270783848</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3285,32 +3012,32 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>0.003987138263665595</v>
+        <v>0.004750593824228029</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0.001286173633440514</v>
+        <v>0.0004750593824228028</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.0003858520900321543</v>
+        <v>0.0004750593824228028</v>
       </c>
     </row>
   </sheetData>
@@ -3342,10 +3069,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1048</v>
+        <v>926</v>
       </c>
       <c r="C2">
-        <v>0.1687328932539044</v>
+        <v>0.1613240418118467</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3353,32 +3080,32 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="C3">
-        <v>0.1432941555305104</v>
+        <v>0.1515679442508711</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>811</v>
+        <v>765</v>
       </c>
       <c r="C4">
-        <v>0.1305747866688134</v>
+        <v>0.1332752613240418</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="C5">
-        <v>0.1027209789083883</v>
+        <v>0.1060975609756098</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3386,109 +3113,109 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="C6">
-        <v>0.09338270809853486</v>
+        <v>0.09268292682926829</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="C7">
-        <v>0.07422315247142167</v>
+        <v>0.0686411149825784</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="C8">
-        <v>0.05200450813073579</v>
+        <v>0.04721254355400697</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="C9">
-        <v>0.05055546610851715</v>
+        <v>0.04564459930313589</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="C10">
-        <v>0.04137819996779907</v>
+        <v>0.03832752613240418</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C11">
-        <v>0.0294638544517791</v>
+        <v>0.03501742160278746</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C12">
-        <v>0.02769280309128965</v>
+        <v>0.03083623693379791</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C13">
-        <v>0.02334567702463371</v>
+        <v>0.0210801393728223</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C14">
-        <v>0.02318467235549831</v>
+        <v>0.01933797909407665</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C15">
-        <v>0.01497343422959266</v>
+        <v>0.0186411149825784</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3496,10 +3223,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16">
-        <v>0.01336338753823861</v>
+        <v>0.01515679442508711</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3507,10 +3234,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>0.01014329415553051</v>
+        <v>0.007665505226480836</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3518,10 +3245,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>0.0008050233456770246</v>
+        <v>0.007142857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3529,10 +3256,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.0001610046691354049</v>
+        <v>0.0003484320557491289</v>
       </c>
     </row>
   </sheetData>
@@ -3564,10 +3291,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1199</v>
+        <v>696</v>
       </c>
       <c r="C2">
-        <v>0.1898653998416469</v>
+        <v>0.185649506535076</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3575,54 +3302,54 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>821</v>
+        <v>464</v>
       </c>
       <c r="C3">
-        <v>0.1300079176563737</v>
+        <v>0.1237663376900507</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>666</v>
+        <v>421</v>
       </c>
       <c r="C4">
-        <v>0.1054631828978622</v>
+        <v>0.1122966124299813</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>657</v>
+        <v>394</v>
       </c>
       <c r="C5">
-        <v>0.1040380047505938</v>
+        <v>0.1050946919178448</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>634</v>
+        <v>376</v>
       </c>
       <c r="C6">
-        <v>0.1003958828186857</v>
+        <v>0.1002934115764204</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>490</v>
+        <v>266</v>
       </c>
       <c r="C7">
-        <v>0.07759303246239113</v>
+        <v>0.07095225393438251</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3630,10 +3357,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>387</v>
+        <v>245</v>
       </c>
       <c r="C8">
-        <v>0.06128266033254157</v>
+        <v>0.06535076020272072</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3641,10 +3368,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="C9">
-        <v>0.04481393507521773</v>
+        <v>0.05201387036543078</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3652,76 +3379,76 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="C10">
-        <v>0.03832145684877276</v>
+        <v>0.04054414510536143</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="C11">
-        <v>0.03072050673000792</v>
+        <v>0.03360896238997066</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="C12">
-        <v>0.02913697545526524</v>
+        <v>0.03094158442251267</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C13">
-        <v>0.02581155977830562</v>
+        <v>0.02534009069085089</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="C14">
-        <v>0.02549485352335708</v>
+        <v>0.01893838356895172</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C15">
-        <v>0.01805225653206651</v>
+        <v>0.01733795678847693</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>0.01330166270783848</v>
+        <v>0.01200320085356095</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3729,10 +3456,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>0.004750593824228029</v>
+        <v>0.00480128034142438</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3743,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.0004750593824228028</v>
+        <v>0.0008002133902373967</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3751,10 +3478,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.0004750593824228028</v>
+        <v>0.0002667377967457989</v>
       </c>
     </row>
   </sheetData>
@@ -3763,6 +3490,217 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>811</v>
+      </c>
+      <c r="C2">
+        <v>0.1682572614107884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>688</v>
+      </c>
+      <c r="C3">
+        <v>0.1427385892116182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>535</v>
+      </c>
+      <c r="C4">
+        <v>0.1109958506224066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>524</v>
+      </c>
+      <c r="C5">
+        <v>0.1087136929460581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>445</v>
+      </c>
+      <c r="C6">
+        <v>0.09232365145228216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>328</v>
+      </c>
+      <c r="C7">
+        <v>0.06804979253112033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>0.06265560165975104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>271</v>
+      </c>
+      <c r="C9">
+        <v>0.0562240663900415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>204</v>
+      </c>
+      <c r="C10">
+        <v>0.04232365145228216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>153</v>
+      </c>
+      <c r="C11">
+        <v>0.03174273858921162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>142</v>
+      </c>
+      <c r="C12">
+        <v>0.02946058091286307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>139</v>
+      </c>
+      <c r="C13">
+        <v>0.02883817427385892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>0.01763485477178423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>0.01701244813278008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>0.01224066390041494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>0.01016597510373444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0.0006224066390041493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3786,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>926</v>
+        <v>2688</v>
       </c>
       <c r="C2">
-        <v>0.1613240418118467</v>
+        <v>0.1848184818481848</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3797,10 +3735,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>870</v>
+        <v>1810</v>
       </c>
       <c r="C3">
-        <v>0.1515679442508711</v>
+        <v>0.1244499449944994</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3808,87 +3746,87 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>765</v>
+        <v>1582</v>
       </c>
       <c r="C4">
-        <v>0.1332752613240418</v>
+        <v>0.1087733773377338</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>609</v>
+        <v>1473</v>
       </c>
       <c r="C5">
-        <v>0.1060975609756098</v>
+        <v>0.1012788778877888</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>532</v>
+        <v>1435</v>
       </c>
       <c r="C6">
-        <v>0.09268292682926829</v>
+        <v>0.09866611661166116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>394</v>
+        <v>1153</v>
       </c>
       <c r="C7">
-        <v>0.0686411149825784</v>
+        <v>0.07927667766776678</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>271</v>
+        <v>874</v>
       </c>
       <c r="C8">
-        <v>0.04721254355400697</v>
+        <v>0.0600935093509351</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>262</v>
+        <v>790</v>
       </c>
       <c r="C9">
-        <v>0.04564459930313589</v>
+        <v>0.05431793179317932</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>220</v>
+        <v>628</v>
       </c>
       <c r="C10">
-        <v>0.03832752613240418</v>
+        <v>0.04317931793179318</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>201</v>
+        <v>463</v>
       </c>
       <c r="C11">
-        <v>0.03501742160278746</v>
+        <v>0.03183443344334434</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3896,21 +3834,21 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="C12">
-        <v>0.03083623693379791</v>
+        <v>0.03155940594059406</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>121</v>
+        <v>430</v>
       </c>
       <c r="C13">
-        <v>0.0210801393728223</v>
+        <v>0.02956545654565457</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3918,32 +3856,32 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="C14">
-        <v>0.01933797909407665</v>
+        <v>0.02523377337733773</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="C15">
-        <v>0.0186411149825784</v>
+        <v>0.01684543454345435</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>0.01515679442508711</v>
+        <v>0.005500550055005501</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3951,10 +3889,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>0.007665505226480836</v>
+        <v>0.003987898789878988</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3962,10 +3900,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0.007142857142857143</v>
+        <v>0.0004125412541254125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3973,221 +3911,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.0003484320557491289</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>811</v>
-      </c>
-      <c r="C2">
-        <v>0.1682572614107884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>688</v>
-      </c>
-      <c r="C3">
-        <v>0.1427385892116182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>535</v>
-      </c>
-      <c r="C4">
-        <v>0.1109958506224066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>524</v>
-      </c>
-      <c r="C5">
-        <v>0.1087136929460581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>445</v>
-      </c>
-      <c r="C6">
-        <v>0.09232365145228216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>328</v>
-      </c>
-      <c r="C7">
-        <v>0.06804979253112033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>302</v>
-      </c>
-      <c r="C8">
-        <v>0.06265560165975104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>271</v>
-      </c>
-      <c r="C9">
-        <v>0.0562240663900415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>204</v>
-      </c>
-      <c r="C10">
-        <v>0.04232365145228216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>153</v>
-      </c>
-      <c r="C11">
-        <v>0.03174273858921162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>142</v>
-      </c>
-      <c r="C12">
-        <v>0.02946058091286307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>139</v>
-      </c>
-      <c r="C13">
-        <v>0.02883817427385892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>85</v>
-      </c>
-      <c r="C14">
-        <v>0.01763485477178423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>82</v>
-      </c>
-      <c r="C15">
-        <v>0.01701244813278008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>59</v>
-      </c>
-      <c r="C16">
-        <v>0.01224066390041494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>49</v>
-      </c>
-      <c r="C17">
-        <v>0.01016597510373444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0.0006224066390041493</v>
+        <v>0.0002062706270627063</v>
       </c>
     </row>
   </sheetData>
